--- a/02.議事録/20170801_新人研修_第1回基本設計書レビュー議事録.xlsx
+++ b/02.議事録/20170801_新人研修_第1回基本設計書レビュー議事録.xlsx
@@ -10,14 +10,14 @@
     <sheet name="20170801_第1回基本設計書レビュー" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'20170801_第1回基本設計書レビュー'!$A$1:$AN$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'20170801_第1回基本設計書レビュー'!$A$1:$AN$75</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>出席者</t>
     <rPh sb="0" eb="3">
@@ -213,53 +213,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・クライアントからサーバーに送る指し手情報は2次元配列ではなく座標で送信すること。(★6)</t>
-    <rPh sb="14" eb="15">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジゲン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・試合終了時サーバーから勝敗メッセージも送信すること。(★5)</t>
-    <rPh sb="1" eb="3">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>▼シート「システム構成図」</t>
     <rPh sb="9" eb="11">
       <t>コウセイ</t>
@@ -291,99 +244,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・メッセージを送信するタイミングが分かるシーケンス図を新規作成すること。(●1)</t>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・JSONの使用ライブラリーの記載の削除。(★7)</t>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・各表のデータ送信処理に名前をつける。(●3)</t>
-    <rPh sb="1" eb="3">
-      <t>カクヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・クライアントとロジックの通信にJSONを使用するとあるが、ここでは使用しない。(★8)</t>
-    <rPh sb="13" eb="15">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・関数や引数は記載しないこと。(★9)</t>
-    <rPh sb="1" eb="3">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・サーバは常に起動せず1試合ごとに再起動することを記載すること。（★12）</t>
-    <rPh sb="5" eb="6">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>→他の設計書について横展開する。</t>
     <rPh sb="1" eb="2">
       <t>ホカ</t>
@@ -403,60 +263,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・表のキー名は表の左側に記載すること。(★4)</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・表にデータ型とデータサイズの最大値を記載し、キー名は左側に記載すること。(●2)</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・以下の観点で全面的に改修すること。</t>
-    <rPh sb="1" eb="3">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ゼンメンテキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1）プラグインとしてjarを使う。</t>
     <rPh sb="14" eb="15">
       <t>ツカ</t>
@@ -475,31 +281,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・このシートの内容は、別紙【○×ゲーム_機能概要書_ver0.1.xlsx】に記載し、当ブックからは削除すること。</t>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ガイヨウショ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・クライアントが送信するデータは盤面情報ではなく、指し手の情報とすること。</t>
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
@@ -522,16 +303,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　盤面データはあくまでサーバが管理するものとすること。</t>
-    <rPh sb="1" eb="3">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>　→他の設計書について横展開する。</t>
     <rPh sb="2" eb="3">
       <t>ホカ</t>
@@ -551,97 +322,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・他の設計書でQueueや送信データに名前をつけているはずだが、その名前で全ての設計所管で統一すること。</t>
-    <rPh sb="1" eb="2">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショカン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・処理フローを上部に移動させ、名前を【各処理のタイミング一例】→【処理フローの正常系】に修正。（★10）</t>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・機能名をつけ、各機能の説明を記載する。（●8）</t>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・各機能の内容の確認については第2回のレビューで確認する。</t>
-    <rPh sb="1" eb="4">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・サーバ機能と同様、正常系の処理フローを記載すること。また、サーバ機能と同様に各機能ごとに機能名をつけ</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -676,150 +356,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　各機能ごとの説明となるように全面的に改修すること。</t>
-    <rPh sb="1" eb="4">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ゼンメンテキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・現状、インターフェース定義書に記載しているインターフェースの内容（プラグイン）をこのシートに記載すること。</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ブラウザ表示を行う場合、webサーバが必要となる。その観点での記載が一切ないので全面的に修正すること。</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イッサイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ゼンメンテキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・サーバ機能、クライアント機能と同様に、フロー図、機能名、各機能説明、となるように記載を合わせること。</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・全てのテーブルで外部キー制約は削除すること。（★13）</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・試合IDとロジックIDの値の割り当て方を考え、第2回レビューで確認する。（●12）</t>
-    <rPh sb="1" eb="3">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6.その他</t>
     <rPh sb="4" eb="5">
       <t>タ</t>
@@ -827,47 +363,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・今回レビュー対象外であるが、上記修正に合わせて記載内容を適切に修正する。（●13）</t>
-    <rPh sb="1" eb="3">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・java.util.concurrent.atomicのAtomicIntegerクラスについて、どのようなものであるか各自理解しておくこと。</t>
-    <rPh sb="61" eb="63">
-      <t>カクジ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>リカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・第2回基本設計書レビュー予定</t>
     <rPh sb="1" eb="2">
       <t>ダイ</t>
@@ -893,6 +388,422 @@
     <t>　08/08（火）10：00～</t>
     <rPh sb="7" eb="8">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・試合終了時サーバーから勝敗メッセージも送信すること。(★4)</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・メッセージを送信するタイミングが分かるシーケンス図を新規作成すること。(★5)</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・表にデータ型とデータサイズの最大値を記載し、キー名は左側に記載すること。(★6)</t>
+    <rPh sb="1" eb="2">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・各表のデータ送信処理に名前をつける。(★7)</t>
+    <rPh sb="1" eb="3">
+      <t>カクヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・以下の観点で全面的に改修すること。（★8）</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゼンメンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・このシートの内容は、別紙【○×ゲーム_機能概要書_ver0.1.xlsx】に記載し、当ブックからは削除すること。（★10）</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ガイヨウショ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　盤面データはあくまでサーバが管理するものとすること。（★11）</t>
+    <rPh sb="1" eb="3">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・他の設計書でQueueや送信データに名前をつけているはずだが、その名前で全ての設計所管で統一すること。（★12）</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・処理フローを上部に移動させ、名前を【各処理のタイミング一例】→【処理フローの正常系】に修正。（★13）</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・機能名をつけ、各機能の説明を記載する。（★14）</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・サーバは常に起動せず1試合ごとに再起動することを記載すること。（★15）</t>
+    <rPh sb="5" eb="6">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・各機能の内容の確認については第2回のレビューで確認する。（●1）</t>
+    <rPh sb="1" eb="4">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　各機能ごとの説明となるように全面的に改修すること。（★16）</t>
+    <rPh sb="1" eb="4">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ゼンメンテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・現状、インターフェース定義書に記載しているインターフェースの内容（プラグイン）をこのシートに記載すること。（★17）</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザ表示を行う場合、webサーバが必要となる。その観点での記載が一切ないので全面的に修正すること。（★18）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ゼンメンテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・サーバ機能、クライアント機能と同様に、フロー図、機能名、各機能説明、となるように記載を合わせること。（★19）</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・試合IDとロジックIDの値の割り当て方を考え、第2回レビューで確認する。（●2）</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・全てのテーブルで外部キー制約は削除すること。（★20）</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・今回レビュー対象外であるが、上記修正に合わせて記載内容を適切に修正する。（★21）</t>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・java.util.concurrent.atomicのAtomicIntegerクラスについて、どのようなものであるか各自理解しておくこと。（●3）</t>
+    <rPh sb="61" eb="63">
+      <t>カクジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1306,11 +1217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD79"/>
+  <dimension ref="B2:AD74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1435,7 +1346,7 @@
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
@@ -1443,229 +1354,204 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D28" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C61" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="1" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="1" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C72" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C73" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/02.議事録/20170801_新人研修_第1回基本設計書レビュー議事録.xlsx
+++ b/02.議事録/20170801_新人研修_第1回基本設計書レビュー議事録.xlsx
@@ -478,129 +478,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・このシートの内容は、別紙【○×ゲーム_機能概要書_ver0.1.xlsx】に記載し、当ブックからは削除すること。（★10）</t>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ガイヨウショ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　盤面データはあくまでサーバが管理するものとすること。（★11）</t>
-    <rPh sb="1" eb="3">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・他の設計書でQueueや送信データに名前をつけているはずだが、その名前で全ての設計所管で統一すること。（★12）</t>
-    <rPh sb="1" eb="2">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショカン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・処理フローを上部に移動させ、名前を【各処理のタイミング一例】→【処理フローの正常系】に修正。（★13）</t>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・機能名をつけ、各機能の説明を記載する。（★14）</t>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・サーバは常に起動せず1試合ごとに再起動することを記載すること。（★15）</t>
-    <rPh sb="5" eb="6">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・各機能の内容の確認については第2回のレビューで確認する。（●1）</t>
     <rPh sb="1" eb="4">
       <t>カクキノウ</t>
@@ -623,103 +500,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　各機能ごとの説明となるように全面的に改修すること。（★16）</t>
-    <rPh sb="1" eb="4">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ゼンメンテキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・現状、インターフェース定義書に記載しているインターフェースの内容（プラグイン）をこのシートに記載すること。（★17）</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ブラウザ表示を行う場合、webサーバが必要となる。その観点での記載が一切ないので全面的に修正すること。（★18）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イッサイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ゼンメンテキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・サーバ機能、クライアント機能と同様に、フロー図、機能名、各機能説明、となるように記載を合わせること。（★19）</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・試合IDとロジックIDの値の割り当て方を考え、第2回レビューで確認する。（●2）</t>
     <rPh sb="1" eb="3">
       <t>シアイ</t>
@@ -751,59 +531,279 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・全てのテーブルで外部キー制約は削除すること。（★20）</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・今回レビュー対象外であるが、上記修正に合わせて記載内容を適切に修正する。（★21）</t>
-    <rPh sb="1" eb="3">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・java.util.concurrent.atomicのAtomicIntegerクラスについて、どのようなものであるか各自理解しておくこと。（●3）</t>
     <rPh sb="61" eb="63">
       <t>カクジ</t>
     </rPh>
     <rPh sb="63" eb="65">
       <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・このシートの内容は、別紙【○×ゲーム_機能概要書_ver0.1.xlsx】に記載し、当ブックからは削除すること。（★9）</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ガイヨウショ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　盤面データはあくまでサーバが管理するものとすること。（★10）</t>
+    <rPh sb="1" eb="3">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・他の設計書でQueueや送信データに名前をつけているはずだが、その名前で全ての設計所管で統一すること。（★11）</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・処理フローを上部に移動させ、名前を【各処理のタイミング一例】→【処理フローの正常系】に修正。（★12）</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・機能名をつけ、各機能の説明を記載する。（★13）</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・サーバは常に起動せず1試合ごとに再起動することを記載すること。（★14）</t>
+    <rPh sb="5" eb="6">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　各機能ごとの説明となるように全面的に改修すること。（★15）</t>
+    <rPh sb="1" eb="4">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ゼンメンテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・現状、インターフェース定義書に記載しているインターフェースの内容（プラグイン）をこのシートに記載すること。（★16）</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザ表示を行う場合、webサーバが必要となる。その観点での記載が一切ないので全面的に修正すること。（★17）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ゼンメンテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・サーバ機能、クライアント機能と同様に、フロー図、機能名、各機能説明、となるように記載を合わせること。（★18）</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・全てのテーブルで外部キー制約は削除すること。（★19）</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・今回レビュー対象外であるが、上記修正に合わせて記載内容を適切に修正する。（★20）</t>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1221,7 +1221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -1451,22 +1451,22 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
@@ -1481,17 +1481,17 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D53" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D54" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
@@ -1501,12 +1501,12 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D59" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
@@ -1516,12 +1516,12 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C63" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
@@ -1531,7 +1531,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
